--- a/src/main/webapp/WEB-INF/excel-templates/Cell4G_Inventory_Rims.xlsx
+++ b/src/main/webapp/WEB-INF/excel-templates/Cell4G_Inventory_Rims.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FFDC737-B55A-4CB4-868A-A1551BD02312}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{28005CC9-7AF6-4A2D-92FE-413A90113967}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>CELL_NAME</t>
   </si>
   <si>
-    <t>CI</t>
-  </si>
-  <si>
     <t>FREQUENCY_BAND</t>
   </si>
   <si>
-    <t>PCI</t>
-  </si>
-  <si>
     <t>TAC</t>
   </si>
   <si>
@@ -46,9 +40,6 @@
     <t>VENDOR</t>
   </si>
   <si>
-    <t>FILENAME</t>
-  </si>
-  <si>
     <t>ENODEB_ID</t>
   </si>
   <si>
@@ -58,26 +49,20 @@
     <t>CELL_CODE</t>
   </si>
   <si>
-    <t>BANDWITH</t>
-  </si>
-  <si>
-    <t>UARCN</t>
-  </si>
-  <si>
-    <t>OAM_IP</t>
-  </si>
-  <si>
-    <t>SERVER_IP</t>
-  </si>
-  <si>
     <t>Danh sách cell4G trên Inventory không có trên RIMS</t>
+  </si>
+  <si>
+    <t>TỈNH/TP</t>
+  </si>
+  <si>
+    <t>KHU VỰC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +78,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +97,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -135,12 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,33 +432,29 @@
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -475,27 +471,20 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
